--- a/data/trans_orig/P62AS2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P62AS2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B63D02DE-8EE0-43C7-B96E-4CF6020E32CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F98A93AE-718A-461C-BB3C-BF1F704EDDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A673E205-BBE7-4326-8A49-2FE728635282}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2C9BF564-031E-4F0C-B2FC-19F247D5B0FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="64">
   <si>
     <t>Población según el tipo de pensión que recibe / respuesta 2 en 2007 (Tasa respuesta: 0,11%)</t>
   </si>
@@ -217,22 +217,19 @@
     <t>12,68%</t>
   </si>
   <si>
-    <t>58,34%</t>
+    <t>55,84%</t>
   </si>
   <si>
     <t>63,07%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
+    <t>19,27%</t>
   </si>
   <si>
     <t>24,26%</t>
   </si>
   <si>
-    <t>66,47%</t>
+    <t>66,96%</t>
   </si>
 </sst>
 </file>
@@ -644,7 +641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E437E77-14B4-4F63-9FF1-5F4D440CE036}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F624044A-CF2E-478A-8137-AF5067843C3C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2498,7 +2495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DF3995-9F98-4EFD-960C-5C00DFFFDF70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836FD985-6E68-4935-9C92-975EA1E1DE26}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4368,7 +4365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754D3407-7464-4BC7-B424-16FF77EEB42F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C501EF66-9372-4E56-B5FD-F22B9BF8C8FF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6096,7 +6093,7 @@
         <v>61</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -6111,7 +6108,7 @@
         <v>61</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,13 +6136,13 @@
         <v>1853</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -6154,13 +6151,13 @@
         <v>1853</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P62AS2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P62AS2-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F98A93AE-718A-461C-BB3C-BF1F704EDDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C7A6115-00A1-4F99-8BDE-486C699DF182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2C9BF564-031E-4F0C-B2FC-19F247D5B0FB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{91A4D80B-E560-41E5-9EA6-AAD3B03FE939}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="65">
   <si>
     <t>Población según el tipo de pensión que recibe / respuesta 2 en 2007 (Tasa respuesta: 0,11%)</t>
   </si>
@@ -142,19 +142,19 @@
     <t>42,75%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
   </si>
   <si>
     <t>57,25%</t>
   </si>
   <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -190,19 +190,19 @@
     <t>5,73%</t>
   </si>
   <si>
-    <t>37,04%</t>
+    <t>23,68%</t>
   </si>
   <si>
     <t>94,27%</t>
   </si>
   <si>
-    <t>62,96%</t>
+    <t>76,32%</t>
   </si>
   <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>Población según el tipo de pensión que recibe / respuesta 2 en 2015 (Tasa respuesta: 0,11%)</t>
+    <t>Población según el tipo de pensión que recibe / respuesta 2 en 2016 (Tasa respuesta: 0,11%)</t>
   </si>
   <si>
     <t>29,23%</t>
@@ -217,19 +217,22 @@
     <t>12,68%</t>
   </si>
   <si>
-    <t>55,84%</t>
+    <t>57,04%</t>
   </si>
   <si>
     <t>63,07%</t>
   </si>
   <si>
-    <t>19,27%</t>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>24,26%</t>
   </si>
   <si>
-    <t>66,96%</t>
+    <t>65,93%</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F624044A-CF2E-478A-8137-AF5067843C3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4571178-88D7-4015-89D3-FD0B8B702EE2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2495,7 +2498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836FD985-6E68-4935-9C92-975EA1E1DE26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADA3979-1A48-4661-BA94-9D8258EC1EFD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4365,7 +4368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C501EF66-9372-4E56-B5FD-F22B9BF8C8FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78299F1-A20E-4BBB-A8CF-AAFFC25B33D6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6093,7 +6096,7 @@
         <v>61</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -6108,7 +6111,7 @@
         <v>61</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,13 +6139,13 @@
         <v>1853</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -6151,13 +6154,13 @@
         <v>1853</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
